--- a/bin/conf/level.xlsx
+++ b/bin/conf/level.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/level.xlsx
+++ b/bin/conf/level.xlsx
@@ -71,12 +71,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//复活时间</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Level</t>
   </si>
@@ -85,6 +111,9 @@
   </si>
   <si>
     <t>MaxExperienceOneDay</t>
+  </si>
+  <si>
+    <t>ReviveTime</t>
   </si>
 </sst>
 </file>
@@ -456,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -467,9 +496,10 @@
     <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,8 +509,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -490,8 +523,11 @@
       <c r="C2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -501,8 +537,11 @@
       <c r="C3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -512,8 +551,11 @@
       <c r="C4">
         <v>5000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -523,8 +565,11 @@
       <c r="C5">
         <v>5000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -534,8 +579,11 @@
       <c r="C6">
         <v>5000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -545,8 +593,11 @@
       <c r="C7">
         <v>5000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -556,8 +607,11 @@
       <c r="C8">
         <v>5000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -567,8 +621,11 @@
       <c r="C9">
         <v>10000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -578,8 +635,11 @@
       <c r="C10">
         <v>10000</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -589,8 +649,11 @@
       <c r="C11">
         <v>10000</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -600,8 +663,11 @@
       <c r="C12">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -611,8 +677,11 @@
       <c r="C13">
         <v>20000</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -622,8 +691,11 @@
       <c r="C14">
         <v>20000</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -633,8 +705,11 @@
       <c r="C15">
         <v>50000</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -644,8 +719,11 @@
       <c r="C16">
         <v>60000</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -655,8 +733,11 @@
       <c r="C17">
         <v>100000</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D17">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -666,8 +747,11 @@
       <c r="C18">
         <v>150000</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -677,8 +761,11 @@
       <c r="C19">
         <v>200000</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D19">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -688,8 +775,11 @@
       <c r="C20">
         <v>300000</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D20">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -699,8 +789,11 @@
       <c r="C21">
         <v>500000</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D21">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -710,8 +803,11 @@
       <c r="C22">
         <v>500000</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D22">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -721,8 +817,11 @@
       <c r="C23">
         <v>500000</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -732,8 +831,11 @@
       <c r="C24">
         <v>500000</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D24">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -742,6 +844,9 @@
       </c>
       <c r="C25">
         <v>500000</v>
+      </c>
+      <c r="D25">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/level.xlsx
+++ b/bin/conf/level.xlsx
@@ -97,12 +97,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+被击杀的基础金钱奖励</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+立即复活需要的金币</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Level</t>
   </si>
@@ -114,6 +166,12 @@
   </si>
   <si>
     <t>ReviveTime</t>
+  </si>
+  <si>
+    <t>KilledBaseGold</t>
+  </si>
+  <si>
+    <t>ReviveGold</t>
   </si>
 </sst>
 </file>
@@ -485,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -497,9 +555,11 @@
     <col min="2" max="2" width="24.25" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,8 +572,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -524,10 +590,16 @@
         <v>5000</v>
       </c>
       <c r="D2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -538,10 +610,16 @@
         <v>5000</v>
       </c>
       <c r="D3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -552,10 +630,16 @@
         <v>5000</v>
       </c>
       <c r="D4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -566,10 +650,16 @@
         <v>5000</v>
       </c>
       <c r="D5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -580,10 +670,16 @@
         <v>5000</v>
       </c>
       <c r="D6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -594,10 +690,16 @@
         <v>5000</v>
       </c>
       <c r="D7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -608,10 +710,16 @@
         <v>5000</v>
       </c>
       <c r="D8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -622,10 +730,16 @@
         <v>10000</v>
       </c>
       <c r="D9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>70</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -636,10 +750,16 @@
         <v>10000</v>
       </c>
       <c r="D10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -650,10 +770,16 @@
         <v>10000</v>
       </c>
       <c r="D11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="E11">
+        <v>150</v>
+      </c>
+      <c r="F11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -664,10 +790,16 @@
         <v>20000</v>
       </c>
       <c r="D12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -680,8 +812,14 @@
       <c r="D13">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E13">
+        <v>250</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -692,10 +830,16 @@
         <v>20000</v>
       </c>
       <c r="D14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>300</v>
+      </c>
+      <c r="F14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -706,10 +850,16 @@
         <v>50000</v>
       </c>
       <c r="D15">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -720,10 +870,16 @@
         <v>60000</v>
       </c>
       <c r="D16">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+        <v>120</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="F16">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -734,10 +890,16 @@
         <v>100000</v>
       </c>
       <c r="D17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+      <c r="E17">
+        <v>300</v>
+      </c>
+      <c r="F17">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -748,10 +910,16 @@
         <v>150000</v>
       </c>
       <c r="D18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+        <v>180</v>
+      </c>
+      <c r="E18">
+        <v>300</v>
+      </c>
+      <c r="F18">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -762,10 +930,16 @@
         <v>200000</v>
       </c>
       <c r="D19">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+        <v>210</v>
+      </c>
+      <c r="E19">
+        <v>300</v>
+      </c>
+      <c r="F19">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -776,10 +950,16 @@
         <v>300000</v>
       </c>
       <c r="D20">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -790,10 +970,16 @@
         <v>500000</v>
       </c>
       <c r="D21">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+        <v>270</v>
+      </c>
+      <c r="E21">
+        <v>300</v>
+      </c>
+      <c r="F21">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -804,10 +990,16 @@
         <v>500000</v>
       </c>
       <c r="D22">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+        <v>300</v>
+      </c>
+      <c r="E22">
+        <v>300</v>
+      </c>
+      <c r="F22">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -818,10 +1010,16 @@
         <v>500000</v>
       </c>
       <c r="D23">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+        <v>330</v>
+      </c>
+      <c r="E23">
+        <v>300</v>
+      </c>
+      <c r="F23">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -832,10 +1030,16 @@
         <v>500000</v>
       </c>
       <c r="D24">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+        <v>360</v>
+      </c>
+      <c r="E24">
+        <v>300</v>
+      </c>
+      <c r="F24">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -846,7 +1050,13 @@
         <v>500000</v>
       </c>
       <c r="D25">
-        <v>170</v>
+        <v>390</v>
+      </c>
+      <c r="E25">
+        <v>300</v>
+      </c>
+      <c r="F25">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/level.xlsx
+++ b/bin/conf/level.xlsx
@@ -149,12 +149,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//立即复活需要的砖石</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Level</t>
   </si>
@@ -172,6 +198,9 @@
   </si>
   <si>
     <t>ReviveGold</t>
+  </si>
+  <si>
+    <t>ReviveDiamond</t>
   </si>
 </sst>
 </file>
@@ -543,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -559,7 +588,7 @@
     <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,8 +607,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -598,8 +630,11 @@
       <c r="F2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -618,8 +653,11 @@
       <c r="F3">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -638,8 +676,11 @@
       <c r="F4">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -658,8 +699,11 @@
       <c r="F5">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -678,8 +722,11 @@
       <c r="F6">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -698,8 +745,11 @@
       <c r="F7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -718,8 +768,11 @@
       <c r="F8">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -738,8 +791,11 @@
       <c r="F9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -758,8 +814,11 @@
       <c r="F10">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -778,8 +837,11 @@
       <c r="F11">
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -798,8 +860,11 @@
       <c r="F12">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -818,8 +883,11 @@
       <c r="F13">
         <v>500</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -838,8 +906,11 @@
       <c r="F14">
         <v>800</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -858,8 +929,11 @@
       <c r="F15">
         <v>1200</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -878,8 +952,11 @@
       <c r="F16">
         <v>1600</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -898,8 +975,11 @@
       <c r="F17">
         <v>2200</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -918,8 +998,11 @@
       <c r="F18">
         <v>2800</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -938,8 +1021,11 @@
       <c r="F19">
         <v>3400</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -958,8 +1044,11 @@
       <c r="F20">
         <v>3800</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -978,8 +1067,11 @@
       <c r="F21">
         <v>4200</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G21">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -998,8 +1090,11 @@
       <c r="F22">
         <v>4600</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1018,8 +1113,11 @@
       <c r="F23">
         <v>5000</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1038,8 +1136,11 @@
       <c r="F24">
         <v>5000</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G24">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1057,6 +1158,9 @@
       </c>
       <c r="F25">
         <v>5000</v>
+      </c>
+      <c r="G25">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
